--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,46 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>panic</t>
@@ -85,84 +91,75 @@
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -184,136 +181,148 @@
     <t>special</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>easter</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -674,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -793,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9130434782608695</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -811,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -843,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8648648648648649</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8620689655172413</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,16 +923,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8561643835616438</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -961,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
         <v>0.9230769230769231</v>
@@ -993,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.84</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1011,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -1043,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1061,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8076923076923077</v>
+        <v>0.84</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -1111,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.8903394255874674</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L10">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,16 +1173,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.8837209302325582</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7941176470588235</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1211,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.8732394366197183</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1235,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1261,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.86875</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1293,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7307692307692307</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1311,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1343,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15">
         <v>0.8636363636363636</v>
@@ -1393,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6937984496124031</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1411,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1443,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6878306878306878</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C17">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1461,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.8515625</v>
+        <v>0.85625</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1485,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1493,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6862745098039216</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1543,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6610169491525424</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1561,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.8297872340425532</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1585,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,16 +1623,16 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.8214285714285714</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1635,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1643,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6410256410256411</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.8205128205128205</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1685,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6308724832214765</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C22">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1743,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6055555555555555</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C23">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1785,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1793,38 +1802,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5945945945945946</v>
+        <v>0.5973154362416108</v>
       </c>
       <c r="C24">
+        <v>89</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L24">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>22</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24">
-        <v>0.8</v>
-      </c>
-      <c r="L24">
-        <v>32</v>
-      </c>
-      <c r="M24">
-        <v>32</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.59375</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.7936507936507936</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1885,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1893,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5818181818181818</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1911,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1935,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1943,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5555555555555556</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1961,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1993,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5178571428571429</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2011,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.7428571428571429</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2035,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2043,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5128205128205128</v>
+        <v>0.475</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2061,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.7352941176470589</v>
+        <v>0.7323529411764705</v>
       </c>
       <c r="L29">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M29">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2085,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2093,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.48</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2111,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.7254901960784313</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2135,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2143,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2161,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.72</v>
+        <v>0.725</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2185,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2193,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2211,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32">
         <v>0.7142857142857143</v>
@@ -2264,16 +2273,16 @@
         <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.7108843537414966</v>
+        <v>0.7</v>
       </c>
       <c r="L33">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2282,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2314,16 +2323,16 @@
         <v>168</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.7037037037037037</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2335,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2343,13 +2352,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.275</v>
+        <v>0.2412868632707775</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2361,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.7037037037037037</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2385,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2393,13 +2402,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2546916890080429</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="C36">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2411,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.7021276595744681</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L36">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="M36">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2435,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2443,13 +2452,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08666666666666667</v>
+        <v>0.01722652885443583</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2461,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>274</v>
+        <v>1141</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.7</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2485,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2493,37 +2502,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01136363636363636</v>
+        <v>0.01266357112705783</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F38">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2349</v>
+        <v>2339</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.6861924686192469</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L38">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2535,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2543,13 +2552,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.009350163627863487</v>
+        <v>0.009674298613350531</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0.17</v>
@@ -2561,19 +2570,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2119</v>
+        <v>3071</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.6615384615384615</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2585,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2593,37 +2602,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.009026434558349452</v>
+        <v>0.006627680311890838</v>
       </c>
       <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>69</v>
+      </c>
+      <c r="E40">
+        <v>0.51</v>
+      </c>
+      <c r="F40">
+        <v>0.49</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>5096</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L40">
         <v>28</v>
       </c>
-      <c r="D40">
-        <v>33</v>
-      </c>
-      <c r="E40">
-        <v>0.15</v>
-      </c>
-      <c r="F40">
-        <v>0.85</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>3074</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K40">
-        <v>0.6404494382022472</v>
-      </c>
-      <c r="L40">
-        <v>57</v>
-      </c>
       <c r="M40">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2643,37 +2652,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005444293214077387</v>
+        <v>0.006243705941591138</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="F41">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>5115</v>
+        <v>4934</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>0.6222222222222222</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2685,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2693,78 +2702,54 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004641448131817127</v>
+        <v>0.005819366852886406</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E42">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F42">
-        <v>0.51</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>4289</v>
+        <v>4271</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K42">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L42">
-        <v>20</v>
-      </c>
-      <c r="M42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.003823706983296438</v>
-      </c>
-      <c r="C43">
-        <v>19</v>
-      </c>
-      <c r="D43">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>0.59</v>
-      </c>
-      <c r="F43">
-        <v>0.41</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>4950</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="K43">
         <v>0.5616438356164384</v>
@@ -2790,42 +2775,42 @@
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.5512820512820513</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.5476190476190477</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2837,15 +2822,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K46">
-        <v>0.5254237288135594</v>
+        <v>0.484375</v>
       </c>
       <c r="L46">
         <v>31</v>
@@ -2863,21 +2848,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K47">
-        <v>0.515625</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2889,21 +2874,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K48">
-        <v>0.3770491803278688</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2915,21 +2900,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2941,21 +2926,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.1743119266055046</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2967,163 +2952,267 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K51">
-        <v>0.01919866444073456</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>0.00975975975975976</v>
+        <v>0.04570383912248629</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N52">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2638</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K53">
-        <v>0.007530593034201443</v>
+        <v>0.04424040066777963</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M53">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N53">
-        <v>0.63</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0.37</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>3163</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="K54">
-        <v>0.0054249547920434</v>
+        <v>0.01720093823299453</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O54">
-        <v>0.41</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4950</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="K55">
-        <v>0.004410399257195914</v>
+        <v>0.01240135287485907</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N55">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="O55">
-        <v>0.51</v>
+        <v>0.27</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>4289</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56">
+        <v>0.01213389121338912</v>
+      </c>
+      <c r="L56">
+        <v>29</v>
+      </c>
+      <c r="M56">
+        <v>33</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57">
+        <v>0.007834534628643058</v>
+      </c>
+      <c r="L57">
+        <v>25</v>
+      </c>
+      <c r="M57">
+        <v>35</v>
+      </c>
+      <c r="N57">
+        <v>0.71</v>
+      </c>
+      <c r="O57">
+        <v>0.29</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58">
+        <v>0.007436672089240065</v>
+      </c>
+      <c r="L58">
+        <v>32</v>
+      </c>
+      <c r="M58">
+        <v>57</v>
+      </c>
+      <c r="N58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O58">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59">
+        <v>0.006821282401091405</v>
+      </c>
+      <c r="L59">
+        <v>35</v>
+      </c>
+      <c r="M59">
+        <v>69</v>
+      </c>
+      <c r="N59">
+        <v>0.51</v>
+      </c>
+      <c r="O59">
+        <v>0.49</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K56">
-        <v>0.004282655246252677</v>
-      </c>
-      <c r="L56">
-        <v>22</v>
-      </c>
-      <c r="M56">
-        <v>50</v>
-      </c>
-      <c r="N56">
-        <v>0.44</v>
-      </c>
-      <c r="O56">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>5115</v>
+      <c r="K60">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="L60">
+        <v>31</v>
+      </c>
+      <c r="M60">
+        <v>62</v>
+      </c>
+      <c r="N60">
+        <v>0.5</v>
+      </c>
+      <c r="O60">
+        <v>0.5</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>4934</v>
       </c>
     </row>
   </sheetData>
